--- a/Dictionaries/CSPCore/Examples/example_ranking_stages_excel.xlsx
+++ b/Dictionaries/CSPCore/Examples/example_ranking_stages_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nfrancia\Desktop\Projects\CSPDataStandards\COMCIFS_Structure_Prediction_Dictionary\Dictionaries\CSPCore\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30D53FB-7ECF-4F28-99DB-4A4C76A340FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAAD389-D22F-4DEF-BBE4-F2B032D90989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -662,60 +662,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -723,118 +683,157 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1120,358 +1119,356 @@
   <dimension ref="A2:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="29.85546875" style="1"/>
-    <col min="5" max="5" width="37.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="29.85546875" style="1"/>
+    <col min="5" max="5" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="76" t="s">
+      <c r="A6" s="66"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="69">
         <v>0</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="22" t="s">
+      <c r="A11" s="70"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="21" t="s">
+      <c r="A12" s="70"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="22" t="s">
+      <c r="A13" s="70"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="21" t="s">
+      <c r="A14" s="70"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="24" t="s">
+      <c r="A15" s="71"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
+      <c r="A16" s="72">
         <v>1</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="17" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="22" t="s">
+      <c r="A17" s="73"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="23" t="s">
+      <c r="A18" s="73"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="22" t="s">
+      <c r="A19" s="73"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="23" t="s">
+      <c r="A20" s="73"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="22" t="s">
+      <c r="A21" s="73"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50" t="s">
+      <c r="A22" s="74"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="51" t="s">
+      <c r="F22" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58">
+      <c r="A23" s="75">
         <v>2</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="62" t="s">
+      <c r="E23" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="63" t="s">
+      <c r="F23" s="25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="64"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="24" t="s">
+      <c r="A24" s="76"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52">
+      <c r="A25" s="47">
         <v>3</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="56" t="s">
+      <c r="E25" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="57" t="s">
+      <c r="F25" s="23" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="24" t="s">
+      <c r="A26" s="48"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="6" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="D10:D15"/>
     <mergeCell ref="D16:D22"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="C16:C22"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
